--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.98286266666667</v>
+        <v>17.829889</v>
       </c>
       <c r="N2">
-        <v>44.948588</v>
+        <v>53.489667</v>
       </c>
       <c r="O2">
-        <v>0.1958132590302862</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P2">
-        <v>0.1958132590302861</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q2">
-        <v>13.744783775932</v>
+        <v>22.27596200763267</v>
       </c>
       <c r="R2">
-        <v>123.703053983388</v>
+        <v>200.483658068694</v>
       </c>
       <c r="S2">
-        <v>0.07726461061657942</v>
+        <v>0.09967969860379995</v>
       </c>
       <c r="T2">
-        <v>0.0772646106165794</v>
+        <v>0.09967969860379995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>159.969868</v>
       </c>
       <c r="O3">
-        <v>0.6968899935126925</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P3">
-        <v>0.6968899935126924</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q3">
-        <v>48.91702596585201</v>
+        <v>66.62002031035291</v>
       </c>
       <c r="R3">
-        <v>440.253233692668</v>
+        <v>599.580182793176</v>
       </c>
       <c r="S3">
-        <v>0.2749810419274041</v>
+        <v>0.2981089455638164</v>
       </c>
       <c r="T3">
-        <v>0.274981041927404</v>
+        <v>0.2981089455638163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.209926333333334</v>
+        <v>0.124766</v>
       </c>
       <c r="N4">
-        <v>24.629779</v>
+        <v>0.374298</v>
       </c>
       <c r="O4">
-        <v>0.1072967474570214</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P4">
-        <v>0.1072967474570214</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q4">
-        <v>7.531515490631</v>
+        <v>0.1558777329373333</v>
       </c>
       <c r="R4">
-        <v>67.783639415679</v>
+        <v>1.402899596436</v>
       </c>
       <c r="S4">
-        <v>0.04233748753147496</v>
+        <v>0.0006975162479139218</v>
       </c>
       <c r="T4">
-        <v>0.04233748753147495</v>
+        <v>0.0006975162479139216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.824043</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.472129</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.98286266666667</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N5">
-        <v>44.948588</v>
+        <v>18.740617</v>
       </c>
       <c r="O5">
-        <v>0.1958132590302862</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P5">
-        <v>0.1958132590302861</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q5">
-        <v>12.346523100428</v>
+        <v>7.80459658295489</v>
       </c>
       <c r="R5">
-        <v>111.118707903852</v>
+        <v>70.241369246594</v>
       </c>
       <c r="S5">
-        <v>0.06940446029377333</v>
+        <v>0.03492373684452457</v>
       </c>
       <c r="T5">
-        <v>0.06940446029377333</v>
+        <v>0.03492373684452457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.824043</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.472129</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>53.32328933333334</v>
+        <v>0.066009</v>
       </c>
       <c r="N6">
-        <v>159.969868</v>
+        <v>0.198027</v>
       </c>
       <c r="O6">
-        <v>0.6968899935126925</v>
+        <v>0.0008507320218962142</v>
       </c>
       <c r="P6">
-        <v>0.6968899935126924</v>
+        <v>0.0008507320218962141</v>
       </c>
       <c r="Q6">
-        <v>43.94068331210801</v>
+        <v>0.082469048246</v>
       </c>
       <c r="R6">
-        <v>395.466149808972</v>
+        <v>0.7422214342140001</v>
       </c>
       <c r="S6">
-        <v>0.2470071440688229</v>
+        <v>0.0003690296235236367</v>
       </c>
       <c r="T6">
-        <v>0.2470071440688228</v>
+        <v>0.0003690296235236367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.209926333333334</v>
+        <v>17.829889</v>
       </c>
       <c r="N7">
-        <v>24.629779</v>
+        <v>53.489667</v>
       </c>
       <c r="O7">
-        <v>0.1072967474570214</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P7">
-        <v>0.1072967474570214</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q7">
-        <v>6.765332325499</v>
+        <v>14.692595221227</v>
       </c>
       <c r="R7">
-        <v>60.887990929491</v>
+        <v>132.233356991043</v>
       </c>
       <c r="S7">
-        <v>0.03803048315221631</v>
+        <v>0.06574591314429977</v>
       </c>
       <c r="T7">
-        <v>0.03803048315221631</v>
+        <v>0.06574591314429976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H8">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,95 +930,95 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.98286266666667</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N8">
-        <v>44.948588</v>
+        <v>159.969868</v>
       </c>
       <c r="O8">
-        <v>0.1958132590302862</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P8">
-        <v>0.1958132590302861</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q8">
-        <v>2.578715476422667</v>
+        <v>43.94068331210801</v>
       </c>
       <c r="R8">
-        <v>23.208439287804</v>
+        <v>395.466149808972</v>
       </c>
       <c r="S8">
-        <v>0.01449593172397754</v>
+        <v>0.1966242386073015</v>
       </c>
       <c r="T8">
-        <v>0.01449593172397753</v>
+        <v>0.1966242386073014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.824043</v>
+      </c>
+      <c r="H9">
+        <v>2.472129</v>
+      </c>
+      <c r="I9">
+        <v>0.2861083254682725</v>
+      </c>
+      <c r="J9">
+        <v>0.2861083254682725</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.172111</v>
-      </c>
-      <c r="H9">
-        <v>0.5163329999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.07402936755031217</v>
-      </c>
-      <c r="J9">
-        <v>0.07402936755031216</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>53.32328933333334</v>
+        <v>0.124766</v>
       </c>
       <c r="N9">
-        <v>159.969868</v>
+        <v>0.374298</v>
       </c>
       <c r="O9">
-        <v>0.6968899935126925</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P9">
-        <v>0.6968899935126924</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q9">
-        <v>9.177524650449334</v>
+        <v>0.102812548938</v>
       </c>
       <c r="R9">
-        <v>82.597721854044</v>
+        <v>0.925312940442</v>
       </c>
       <c r="S9">
-        <v>0.05159032547188578</v>
+        <v>0.0004600620115673018</v>
       </c>
       <c r="T9">
-        <v>0.05159032547188576</v>
+        <v>0.0004600620115673016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H10">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.209926333333334</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N10">
-        <v>24.629779</v>
+        <v>18.740617</v>
       </c>
       <c r="O10">
-        <v>0.1072967474570214</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P10">
-        <v>0.1072967474570214</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q10">
-        <v>1.413018631156333</v>
+        <v>5.147691418177</v>
       </c>
       <c r="R10">
-        <v>12.717167680407</v>
+        <v>46.32922276359299</v>
       </c>
       <c r="S10">
-        <v>0.007943110354448859</v>
+        <v>0.02303471019089702</v>
       </c>
       <c r="T10">
-        <v>0.007943110354448857</v>
+        <v>0.02303471019089701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3345336666666667</v>
+        <v>0.824043</v>
       </c>
       <c r="H11">
-        <v>1.003601</v>
+        <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.1438915337637936</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.1438915337637936</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>14.98286266666667</v>
+        <v>0.066009</v>
       </c>
       <c r="N11">
-        <v>44.948588</v>
+        <v>0.198027</v>
       </c>
       <c r="O11">
-        <v>0.1958132590302862</v>
+        <v>0.0008507320218962142</v>
       </c>
       <c r="P11">
-        <v>0.1958132590302861</v>
+        <v>0.0008507320218962141</v>
       </c>
       <c r="Q11">
-        <v>5.012271985043111</v>
+        <v>0.054394254387</v>
       </c>
       <c r="R11">
-        <v>45.110447865388</v>
+        <v>0.489548289483</v>
       </c>
       <c r="S11">
-        <v>0.02817587017315488</v>
+        <v>0.0002434015142069636</v>
       </c>
       <c r="T11">
-        <v>0.02817587017315488</v>
+        <v>0.0002434015142069635</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.32328933333334</v>
+        <v>17.829889</v>
       </c>
       <c r="N12">
-        <v>159.969868</v>
+        <v>53.489667</v>
       </c>
       <c r="O12">
-        <v>0.6968899935126925</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="P12">
-        <v>0.6968899935126924</v>
+        <v>0.229793778411354</v>
       </c>
       <c r="Q12">
-        <v>17.83843549940756</v>
+        <v>0.721005051382</v>
       </c>
       <c r="R12">
-        <v>160.545919494668</v>
+        <v>6.489045462438</v>
       </c>
       <c r="S12">
-        <v>0.1002765700311815</v>
+        <v>0.003226328281083868</v>
       </c>
       <c r="T12">
-        <v>0.1002765700311815</v>
+        <v>0.003226328281083868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H13">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I13">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J13">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.209926333333334</v>
+        <v>53.32328933333334</v>
       </c>
       <c r="N13">
-        <v>24.629779</v>
+        <v>159.969868</v>
       </c>
       <c r="O13">
-        <v>0.1072967474570214</v>
+        <v>0.6872370396264676</v>
       </c>
       <c r="P13">
-        <v>0.1072967474570214</v>
+        <v>0.6872370396264675</v>
       </c>
       <c r="Q13">
-        <v>2.746496759353223</v>
+        <v>2.156287174061334</v>
       </c>
       <c r="R13">
-        <v>24.718470834179</v>
+        <v>19.406584566552</v>
       </c>
       <c r="S13">
-        <v>0.01543909355945723</v>
+        <v>0.009648878712399788</v>
       </c>
       <c r="T13">
-        <v>0.01543909355945723</v>
+        <v>0.009648878712399786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,51 +1284,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.076847</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>0.230541</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>14.98286266666667</v>
+        <v>0.124766</v>
       </c>
       <c r="N14">
-        <v>44.948588</v>
+        <v>0.374298</v>
       </c>
       <c r="O14">
-        <v>0.1958132590302862</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="P14">
-        <v>0.1958132590302861</v>
+        <v>0.001607999385597465</v>
       </c>
       <c r="Q14">
-        <v>1.151388047345333</v>
+        <v>0.005045287508</v>
       </c>
       <c r="R14">
-        <v>10.362492426108</v>
+        <v>0.045407587572</v>
       </c>
       <c r="S14">
-        <v>0.006472386222800994</v>
+        <v>2.257647674181875E-05</v>
       </c>
       <c r="T14">
-        <v>0.006472386222800993</v>
+        <v>2.257647674181875E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.076847</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>0.230541</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,42 +1364,42 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>53.32328933333334</v>
+        <v>6.246872333333333</v>
       </c>
       <c r="N15">
-        <v>159.969868</v>
+        <v>18.740617</v>
       </c>
       <c r="O15">
-        <v>0.6968899935126925</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="P15">
-        <v>0.6968899935126924</v>
+        <v>0.08051045055468478</v>
       </c>
       <c r="Q15">
-        <v>4.097734815398668</v>
+        <v>0.2526110234153333</v>
       </c>
       <c r="R15">
-        <v>36.879613338588</v>
+        <v>2.273499210738</v>
       </c>
       <c r="S15">
-        <v>0.02303491201339837</v>
+        <v>0.00113037500555128</v>
       </c>
       <c r="T15">
-        <v>0.02303491201339837</v>
+        <v>0.00113037500555128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,666 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.076847</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>0.230541</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.0330538710956234</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.209926333333334</v>
+        <v>0.066009</v>
       </c>
       <c r="N16">
-        <v>24.629779</v>
+        <v>0.198027</v>
       </c>
       <c r="O16">
-        <v>0.1072967474570214</v>
+        <v>0.0008507320218962142</v>
       </c>
       <c r="P16">
-        <v>0.1072967474570214</v>
+        <v>0.0008507320218962141</v>
       </c>
       <c r="Q16">
-        <v>0.6309082089376666</v>
+        <v>0.002669271942</v>
       </c>
       <c r="R16">
-        <v>5.678173880439001</v>
+        <v>0.024023447478</v>
       </c>
       <c r="S16">
-        <v>0.003546572859424043</v>
+        <v>1.194436507743066E-05</v>
       </c>
       <c r="T16">
-        <v>0.003546572859424043</v>
+        <v>1.194436507743066E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.615757</v>
+      </c>
+      <c r="I17">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J17">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.829889</v>
+      </c>
+      <c r="N17">
+        <v>53.489667</v>
+      </c>
+      <c r="O17">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="P17">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="Q17">
+        <v>9.602922653657666</v>
+      </c>
+      <c r="R17">
+        <v>86.426303882919</v>
+      </c>
+      <c r="S17">
+        <v>0.04297082368448182</v>
+      </c>
+      <c r="T17">
+        <v>0.04297082368448182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.615757</v>
+      </c>
+      <c r="I18">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J18">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N18">
+        <v>159.969868</v>
+      </c>
+      <c r="O18">
+        <v>0.6872370396264676</v>
+      </c>
+      <c r="P18">
+        <v>0.6872370396264675</v>
+      </c>
+      <c r="Q18">
+        <v>28.7191593344529</v>
+      </c>
+      <c r="R18">
+        <v>258.472434010076</v>
+      </c>
+      <c r="S18">
+        <v>0.1285114934938337</v>
+      </c>
+      <c r="T18">
+        <v>0.1285114934938337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.615757</v>
+      </c>
+      <c r="I19">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J19">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.124766</v>
+      </c>
+      <c r="N19">
+        <v>0.374298</v>
+      </c>
+      <c r="O19">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="P19">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="Q19">
+        <v>0.06719717928733335</v>
+      </c>
+      <c r="R19">
+        <v>0.604774613586</v>
+      </c>
+      <c r="S19">
+        <v>0.0003006915964433688</v>
+      </c>
+      <c r="T19">
+        <v>0.0003006915964433687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.615757</v>
+      </c>
+      <c r="I20">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J20">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.246872333333333</v>
+      </c>
+      <c r="N20">
+        <v>18.740617</v>
+      </c>
+      <c r="O20">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="P20">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="Q20">
+        <v>3.364475900229889</v>
+      </c>
+      <c r="R20">
+        <v>30.280283102069</v>
+      </c>
+      <c r="S20">
+        <v>0.01505523952589577</v>
+      </c>
+      <c r="T20">
+        <v>0.01505523952589577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.615757</v>
+      </c>
+      <c r="I21">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J21">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.066009</v>
+      </c>
+      <c r="N21">
+        <v>0.198027</v>
+      </c>
+      <c r="O21">
+        <v>0.0008507320218962142</v>
+      </c>
+      <c r="P21">
+        <v>0.0008507320218962141</v>
+      </c>
+      <c r="Q21">
+        <v>0.03555150127100001</v>
+      </c>
+      <c r="R21">
+        <v>0.319963511439</v>
+      </c>
+      <c r="S21">
+        <v>0.0001590846191240428</v>
+      </c>
+      <c r="T21">
+        <v>0.0001590846191240428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.227751</v>
+      </c>
+      <c r="H22">
+        <v>0.683253</v>
+      </c>
+      <c r="I22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>17.829889</v>
+      </c>
+      <c r="N22">
+        <v>53.489667</v>
+      </c>
+      <c r="O22">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="P22">
+        <v>0.229793778411354</v>
+      </c>
+      <c r="Q22">
+        <v>4.060775049639</v>
+      </c>
+      <c r="R22">
+        <v>36.546975446751</v>
+      </c>
+      <c r="S22">
+        <v>0.01817101469768861</v>
+      </c>
+      <c r="T22">
+        <v>0.01817101469768861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.227751</v>
+      </c>
+      <c r="H23">
+        <v>0.683253</v>
+      </c>
+      <c r="I23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.32328933333334</v>
+      </c>
+      <c r="N23">
+        <v>159.969868</v>
+      </c>
+      <c r="O23">
+        <v>0.6872370396264676</v>
+      </c>
+      <c r="P23">
+        <v>0.6872370396264675</v>
+      </c>
+      <c r="Q23">
+        <v>12.144432468956</v>
+      </c>
+      <c r="R23">
+        <v>109.299892220604</v>
+      </c>
+      <c r="S23">
+        <v>0.05434348324911627</v>
+      </c>
+      <c r="T23">
+        <v>0.05434348324911627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.227751</v>
+      </c>
+      <c r="H24">
+        <v>0.683253</v>
+      </c>
+      <c r="I24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.124766</v>
+      </c>
+      <c r="N24">
+        <v>0.374298</v>
+      </c>
+      <c r="O24">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="P24">
+        <v>0.001607999385597465</v>
+      </c>
+      <c r="Q24">
+        <v>0.028415581266</v>
+      </c>
+      <c r="R24">
+        <v>0.255740231394</v>
+      </c>
+      <c r="S24">
+        <v>0.000127153052931054</v>
+      </c>
+      <c r="T24">
+        <v>0.000127153052931054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.227751</v>
+      </c>
+      <c r="H25">
+        <v>0.683253</v>
+      </c>
+      <c r="I25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.246872333333333</v>
+      </c>
+      <c r="N25">
+        <v>18.740617</v>
+      </c>
+      <c r="O25">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="P25">
+        <v>0.08051045055468478</v>
+      </c>
+      <c r="Q25">
+        <v>1.422731420789</v>
+      </c>
+      <c r="R25">
+        <v>12.804582787101</v>
+      </c>
+      <c r="S25">
+        <v>0.006366388987816152</v>
+      </c>
+      <c r="T25">
+        <v>0.006366388987816152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.227751</v>
+      </c>
+      <c r="H26">
+        <v>0.683253</v>
+      </c>
+      <c r="I26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.066009</v>
+      </c>
+      <c r="N26">
+        <v>0.198027</v>
+      </c>
+      <c r="O26">
+        <v>0.0008507320218962142</v>
+      </c>
+      <c r="P26">
+        <v>0.0008507320218962141</v>
+      </c>
+      <c r="Q26">
+        <v>0.015033615759</v>
+      </c>
+      <c r="R26">
+        <v>0.135302541831</v>
+      </c>
+      <c r="S26">
+        <v>6.727189996414042E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.727189996414042E-05</v>
       </c>
     </row>
   </sheetData>
